--- a/Memory Map.xlsx
+++ b/Memory Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\danie\Google Drive\Work\Modbus\Git\ModbusShift\ModbusShift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D440237-D47A-4560-BA6E-E33ACB4FF83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338DD389-62AA-4284-B958-BDD54B110543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1410" windowWidth="19170" windowHeight="19515" xr2:uid="{30080191-6877-4434-B289-379CC03641DA}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{30080191-6877-4434-B289-379CC03641DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="166">
   <si>
     <t>MB300xx</t>
   </si>
@@ -273,13 +273,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>Part Number</t>
-  </si>
-  <si>
     <t>Revision</t>
-  </si>
-  <si>
-    <t>Ser Number</t>
   </si>
   <si>
     <t>G</t>
@@ -531,13 +525,23 @@
   </si>
   <si>
     <t>0x010f</t>
+  </si>
+  <si>
+    <t>Part Number 
+(Max 18 chars)</t>
+  </si>
+  <si>
+    <t>Serial Number (Max 10 chars)</t>
+  </si>
+  <si>
+    <t>Decimal Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +563,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -574,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -977,11 +988,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,12 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1086,33 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,13 +1132,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -1144,9 +1140,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1162,26 +1155,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1496,2651 +1544,2871 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1C154-DD78-4F44-A5B1-C402DE56878A}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="77"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>3</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="15">
+      <c r="J1" s="13">
         <v>4</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="G3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="N4" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="G5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="N7" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="N8" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="10">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="G9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="G10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="10">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="G11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="N11" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="10">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="G12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="N12" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="G13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="N13" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="G14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="N14" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="10">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="G15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="N15" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="10">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="G16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="N16" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="10">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="G17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="N17" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="10">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="G18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="N18" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="10">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="G19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="N19" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="10">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="G20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="N20" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="10">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="G21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="N21" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="10">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="4" t="s">
+      <c r="G22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="N22" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="10">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="G23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="63"/>
+      <c r="I23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="N23" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="10">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="G24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="M24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="N24" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="10">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="G25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="63"/>
+      <c r="I25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="N25" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="10">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="G26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="63"/>
+      <c r="I26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="N26" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="10">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="G27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="63"/>
+      <c r="I27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="N27" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="10">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="G28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="63"/>
+      <c r="I28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="M28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="N28" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="10">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="G29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="63"/>
+      <c r="I29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="M29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="N29" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="10">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="77"/>
-      <c r="H30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="G30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="M30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="N30" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="10">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="77"/>
-      <c r="H31" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="G31" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="63"/>
+      <c r="I31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="M31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="N31" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="10">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="77"/>
-      <c r="H32" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="G32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="63"/>
+      <c r="I32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="M32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="N32" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="10">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="77"/>
-      <c r="H33" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="G33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="63"/>
+      <c r="I33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="M33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="N33" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="25" t="s">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="C34" s="20">
+        <v>31</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="F34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="77"/>
-      <c r="H34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="25" t="s">
+      <c r="G34" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="63"/>
+      <c r="I34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J34" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="25" t="s">
+      <c r="K34" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="M34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="N34" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:13" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="35" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:14" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="15">
-        <v>4</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16" t="s">
+      <c r="B37" s="13">
+        <v>3</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="50" t="s">
+      <c r="F37" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="76"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="77"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="95">
+        <v>256</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="83"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="86"/>
-      <c r="F40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="C40" s="96">
+        <v>257</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="86"/>
+      <c r="G40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="86"/>
-      <c r="F41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="C41" s="96">
+        <v>258</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="86"/>
+      <c r="G41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="86"/>
-      <c r="F42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="C42" s="97">
+        <v>259</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="86"/>
+      <c r="G42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="86"/>
-      <c r="F43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="H43" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="C43" s="97">
+        <v>260</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="86"/>
+      <c r="G43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="C44" s="97">
+        <v>261</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="86"/>
+      <c r="G44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="97">
+        <v>262</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="86"/>
+      <c r="G45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="97">
+        <v>263</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="86"/>
+      <c r="G46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="98">
+        <v>264</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="87"/>
+      <c r="G47" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+    </row>
+    <row r="49" spans="1:14" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="13">
+        <v>3</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="86"/>
-      <c r="F45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="86"/>
-      <c r="F46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="H47" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-    </row>
-    <row r="49" spans="1:13" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="15">
-        <v>4</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="59" t="s">
+      <c r="I50" s="76"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="70" t="s">
+      <c r="H51" s="82"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-    </row>
-    <row r="53" spans="1:13" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="B52" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="92">
+        <v>512</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+    </row>
+    <row r="53" spans="1:14" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="15">
-        <v>4</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16" t="s">
+      <c r="B54" s="13">
+        <v>3</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
+      <c r="F54" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" s="76"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="H55" s="83"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="6">
+        <v>768</v>
+      </c>
+      <c r="D56" s="29">
         <v>2</v>
       </c>
-      <c r="D56" s="32">
+      <c r="E56" s="30">
         <v>1</v>
       </c>
-      <c r="E56" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="H56" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="F56" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="10">
+        <v>769</v>
+      </c>
+      <c r="D57" s="31">
         <v>0</v>
       </c>
-      <c r="D57" s="34">
+      <c r="E57" s="32">
         <v>9</v>
       </c>
-      <c r="E57" s="86"/>
-      <c r="F57" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="F57" s="86"/>
+      <c r="G57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="10">
+        <v>770</v>
+      </c>
+      <c r="D58" s="31">
         <v>0</v>
       </c>
-      <c r="D58" s="34">
+      <c r="E58" s="32">
         <v>0</v>
       </c>
-      <c r="E58" s="86"/>
-      <c r="F58" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="H58" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="F58" s="86"/>
+      <c r="G58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="11">
+        <v>771</v>
+      </c>
+      <c r="D59" s="31">
         <v>1</v>
       </c>
-      <c r="D59" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="86"/>
-      <c r="F59" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="88" t="s">
+      <c r="E59" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="86"/>
+      <c r="G59" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="87"/>
-      <c r="F60" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="H60" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="77"/>
-    </row>
-    <row r="61" spans="1:13" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="C60" s="55">
+        <v>772</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="87"/>
+      <c r="G60" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="I60" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+    </row>
+    <row r="61" spans="1:14" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="15">
-        <v>4</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16" t="s">
+      <c r="B62" s="13">
+        <v>3</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H62" s="51"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+      <c r="F62" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="76"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="60" t="s">
+      <c r="H63" s="82"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="E64" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="77"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="G64" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H65" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="C65" s="10">
+        <v>1025</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="80"/>
+      <c r="G65" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="10">
+        <v>1026</v>
+      </c>
+      <c r="D66" s="31">
         <v>0</v>
       </c>
-      <c r="D66" s="34">
+      <c r="E66" s="32">
         <v>9</v>
       </c>
-      <c r="E66" s="55"/>
-      <c r="F66" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H66" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="77"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="F66" s="80"/>
+      <c r="G66" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="11">
+        <v>1027</v>
+      </c>
+      <c r="D67" s="31">
         <v>2</v>
       </c>
-      <c r="D67" s="34">
+      <c r="E67" s="32">
         <v>0</v>
       </c>
-      <c r="E67" s="55"/>
-      <c r="F67" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="H67" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="I67" s="77"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
-      <c r="M67" s="77"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
+      <c r="F67" s="80"/>
+      <c r="G67" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="61">
+      <c r="C68" s="20">
+        <v>1028</v>
+      </c>
+      <c r="D68" s="50">
         <v>2</v>
       </c>
-      <c r="D68" s="62">
+      <c r="E68" s="51">
         <v>1</v>
       </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="H68" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="77"/>
-    </row>
-    <row r="69" spans="1:13" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="F68" s="81"/>
+      <c r="G68" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+    </row>
+    <row r="69" spans="1:14" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="15">
-        <v>4</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="16" t="s">
+      <c r="B70" s="13">
+        <v>3</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H70" s="51"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="77"/>
-      <c r="M70" s="77"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
+      <c r="F70" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I70" s="76"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="52"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="77"/>
-      <c r="M71" s="77"/>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="60" t="s">
+      <c r="H71" s="82"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
+    </row>
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="49" t="s">
         <v>42</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="6">
+        <v>1280</v>
+      </c>
+      <c r="D72" s="29">
         <v>1</v>
       </c>
-      <c r="D72" s="32">
+      <c r="E72" s="30">
         <v>7</v>
       </c>
-      <c r="E72" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="H72" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="77"/>
-      <c r="M72" s="77"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="F72" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="63"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="10">
+        <v>1281</v>
+      </c>
+      <c r="D73" s="31">
         <v>3</v>
       </c>
-      <c r="D73" s="34">
+      <c r="E73" s="32">
         <v>5</v>
       </c>
-      <c r="E73" s="55"/>
-      <c r="F73" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H73" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21" t="s">
+      <c r="F73" s="80"/>
+      <c r="G73" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I73" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="61">
+      <c r="C74" s="20">
+        <v>1282</v>
+      </c>
+      <c r="D74" s="50">
         <v>4</v>
       </c>
-      <c r="D74" s="62">
+      <c r="E74" s="51">
         <v>9</v>
       </c>
-      <c r="E74" s="66"/>
-      <c r="F74" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="H74" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="77"/>
-      <c r="M74" s="77"/>
-    </row>
-    <row r="75" spans="1:13" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="78"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="F74" s="81"/>
+      <c r="G74" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="63"/>
+    </row>
+    <row r="75" spans="1:14" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="15">
-        <v>4</v>
-      </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16" t="s">
+      <c r="B76" s="13">
+        <v>3</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H76" s="51"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="77"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+      <c r="F76" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" s="76"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G77" s="52"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="60" t="s">
+      <c r="H77" s="82"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="6">
+        <v>1536</v>
+      </c>
+      <c r="D78" s="29">
         <v>2</v>
       </c>
-      <c r="D78" s="32">
+      <c r="E78" s="30">
         <v>1</v>
       </c>
-      <c r="E78" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" s="42" t="s">
+      <c r="F78" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="H78" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
-      <c r="M78" s="77"/>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="61">
+      <c r="C79" s="20">
+        <v>1537</v>
+      </c>
+      <c r="D79" s="50">
         <v>0</v>
       </c>
-      <c r="D79" s="62">
+      <c r="E79" s="51">
         <v>0</v>
       </c>
-      <c r="E79" s="68"/>
-      <c r="F79" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" s="63" t="s">
+      <c r="F79" s="89"/>
+      <c r="G79" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="I79" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H79" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="77"/>
-      <c r="L79" s="77"/>
-      <c r="M79" s="77"/>
-    </row>
-    <row r="80" spans="1:13" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="78"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="80"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+    </row>
+    <row r="80" spans="1:14" s="63" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="15">
-        <v>4</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16" t="s">
+      <c r="B81" s="13">
+        <v>3</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H81" s="51"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="77"/>
-      <c r="M81" s="77"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="59" t="s">
+      <c r="F81" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="H81" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" s="76"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
+      <c r="L81" s="63"/>
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="65" t="s">
+      <c r="H82" s="82"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="37" t="s">
+      <c r="B83" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="93">
+        <v>1792</v>
+      </c>
+      <c r="D83" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="H83" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="E83" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="I83" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="56" t="s">
         <v>44</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D84" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H84" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="77"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="70" t="s">
+      <c r="C84" s="94">
+        <v>1793</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="I84" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="J84" s="63"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="63"/>
+      <c r="N84" s="63"/>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="72" t="s">
+      <c r="C85" s="92">
+        <v>1794</v>
+      </c>
+      <c r="D85" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="F85" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H85" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
-      <c r="M85" s="77"/>
-    </row>
-    <row r="86" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="81"/>
-      <c r="D86" s="81"/>
-    </row>
-    <row r="87" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-    </row>
-    <row r="88" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="81"/>
-      <c r="D88" s="81"/>
-    </row>
-    <row r="89" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E85" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I85" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
+    </row>
+    <row r="86" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+    </row>
+    <row r="87" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+    </row>
+    <row r="88" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+    </row>
+    <row r="89" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G81:H82"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="G70:H71"/>
-    <mergeCell ref="G76:H77"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="H81:I82"/>
+    <mergeCell ref="H54:I55"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="H70:I71"/>
+    <mergeCell ref="H76:I77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Memory Map.xlsx
+++ b/Memory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\danie\Google Drive\Work\Modbus\Git\ModbusShift\ModbusShift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338DD389-62AA-4284-B958-BDD54B110543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722B461-3ABA-404F-88C5-B3BFCF2304B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{30080191-6877-4434-B289-379CC03641DA}"/>
   </bookViews>
@@ -1172,51 +1172,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,6 +1185,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1C154-DD78-4F44-A5B1-C402DE56878A}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1608,7 @@
       <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -3005,10 +3005,10 @@
         <v>114</v>
       </c>
       <c r="G37" s="15"/>
-      <c r="H37" s="75" t="s">
+      <c r="H37" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I37" s="76"/>
+      <c r="I37" s="85"/>
       <c r="J37" s="63"/>
       <c r="K37" s="63"/>
       <c r="L37" s="63"/>
@@ -3019,7 +3019,7 @@
       <c r="A38" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="76" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="26" t="s">
@@ -3037,8 +3037,8 @@
       <c r="G38" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="77"/>
-      <c r="I38" s="78"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
       <c r="J38" s="63"/>
       <c r="K38" s="63"/>
       <c r="L38" s="63"/>
@@ -3052,7 +3052,7 @@
       <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="95">
+      <c r="C39" s="80">
         <v>256</v>
       </c>
       <c r="D39" s="29" t="s">
@@ -3061,7 +3061,7 @@
       <c r="E39" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="85" t="s">
+      <c r="F39" s="94" t="s">
         <v>163</v>
       </c>
       <c r="G39" s="9" t="s">
@@ -3086,7 +3086,7 @@
       <c r="B40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="96">
+      <c r="C40" s="81">
         <v>257</v>
       </c>
       <c r="D40" s="31" t="s">
@@ -3095,7 +3095,7 @@
       <c r="E40" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="86"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="4" t="s">
         <v>36</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="B41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="96">
+      <c r="C41" s="81">
         <v>258</v>
       </c>
       <c r="D41" s="31" t="s">
@@ -3127,7 +3127,7 @@
       <c r="E41" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="86"/>
+      <c r="F41" s="95"/>
       <c r="G41" s="4" t="s">
         <v>36</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="B42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="97">
+      <c r="C42" s="82">
         <v>259</v>
       </c>
       <c r="D42" s="31" t="s">
@@ -3159,7 +3159,7 @@
       <c r="E42" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="86"/>
+      <c r="F42" s="95"/>
       <c r="G42" s="4" t="s">
         <v>36</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="B43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="97">
+      <c r="C43" s="82">
         <v>260</v>
       </c>
       <c r="D43" s="31" t="s">
@@ -3191,7 +3191,7 @@
       <c r="E43" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="86"/>
+      <c r="F43" s="95"/>
       <c r="G43" s="4" t="s">
         <v>36</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="B44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="97">
+      <c r="C44" s="82">
         <v>261</v>
       </c>
       <c r="D44" s="31" t="s">
@@ -3223,7 +3223,7 @@
       <c r="E44" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="86"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="4" t="s">
         <v>36</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="97">
+      <c r="C45" s="82">
         <v>262</v>
       </c>
       <c r="D45" s="31" t="s">
@@ -3255,7 +3255,7 @@
       <c r="E45" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="86"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="4" t="s">
         <v>36</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="B46" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="97">
+      <c r="C46" s="82">
         <v>263</v>
       </c>
       <c r="D46" s="31" t="s">
@@ -3287,7 +3287,7 @@
       <c r="E46" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="86"/>
+      <c r="F46" s="95"/>
       <c r="G46" s="4" t="s">
         <v>36</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="B47" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="98">
+      <c r="C47" s="83">
         <v>264</v>
       </c>
       <c r="D47" s="50" t="s">
@@ -3319,7 +3319,7 @@
       <c r="E47" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="87"/>
+      <c r="F47" s="96"/>
       <c r="G47" s="23" t="s">
         <v>36</v>
       </c>
@@ -3378,10 +3378,10 @@
         <v>115</v>
       </c>
       <c r="G50" s="15"/>
-      <c r="H50" s="75" t="s">
+      <c r="H50" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I50" s="76"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="63"/>
       <c r="K50" s="63"/>
       <c r="L50" s="63"/>
@@ -3395,7 +3395,7 @@
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3410,8 +3410,8 @@
       <c r="G51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="82"/>
-      <c r="I51" s="78"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="87"/>
       <c r="J51" s="63"/>
       <c r="K51" s="63"/>
       <c r="L51" s="63"/>
@@ -3425,7 +3425,7 @@
       <c r="B52" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="92">
+      <c r="C52" s="77">
         <v>512</v>
       </c>
       <c r="D52" s="59" t="s">
@@ -3479,10 +3479,10 @@
         <v>116</v>
       </c>
       <c r="G54" s="15"/>
-      <c r="H54" s="75" t="s">
+      <c r="H54" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I54" s="76"/>
+      <c r="I54" s="85"/>
       <c r="J54" s="63"/>
       <c r="K54" s="63"/>
       <c r="L54" s="63"/>
@@ -3496,7 +3496,7 @@
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="90" t="s">
+      <c r="C55" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3511,8 +3511,8 @@
       <c r="G55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H55" s="83"/>
-      <c r="I55" s="84"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="93"/>
       <c r="J55" s="63"/>
       <c r="K55" s="63"/>
       <c r="L55" s="63"/>
@@ -3535,7 +3535,7 @@
       <c r="E56" s="30">
         <v>1</v>
       </c>
-      <c r="F56" s="85" t="s">
+      <c r="F56" s="94" t="s">
         <v>164</v>
       </c>
       <c r="G56" s="38" t="s">
@@ -3569,7 +3569,7 @@
       <c r="E57" s="32">
         <v>9</v>
       </c>
-      <c r="F57" s="86"/>
+      <c r="F57" s="95"/>
       <c r="G57" s="10" t="s">
         <v>36</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="E58" s="32">
         <v>0</v>
       </c>
-      <c r="F58" s="86"/>
+      <c r="F58" s="95"/>
       <c r="G58" s="10" t="s">
         <v>36</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="E59" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="86"/>
+      <c r="F59" s="95"/>
       <c r="G59" s="10" t="s">
         <v>36</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="E60" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="87"/>
+      <c r="F60" s="96"/>
       <c r="G60" s="55" t="s">
         <v>36</v>
       </c>
@@ -3708,10 +3708,10 @@
         <v>117</v>
       </c>
       <c r="G62" s="15"/>
-      <c r="H62" s="75" t="s">
+      <c r="H62" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I62" s="76"/>
+      <c r="I62" s="85"/>
       <c r="J62" s="63"/>
       <c r="K62" s="63"/>
       <c r="L62" s="63"/>
@@ -3725,7 +3725,7 @@
       <c r="B63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="90" t="s">
+      <c r="C63" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3740,8 +3740,8 @@
       <c r="G63" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H63" s="82"/>
-      <c r="I63" s="78"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="87"/>
       <c r="J63" s="63"/>
       <c r="K63" s="63"/>
       <c r="L63" s="63"/>
@@ -3764,7 +3764,7 @@
       <c r="E64" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F64" s="79" t="s">
+      <c r="F64" s="88" t="s">
         <v>83</v>
       </c>
       <c r="G64" s="38" t="s">
@@ -3798,7 +3798,7 @@
       <c r="E65" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="80"/>
+      <c r="F65" s="89"/>
       <c r="G65" s="11" t="s">
         <v>36</v>
       </c>
@@ -3830,7 +3830,7 @@
       <c r="E66" s="32">
         <v>9</v>
       </c>
-      <c r="F66" s="80"/>
+      <c r="F66" s="89"/>
       <c r="G66" s="11" t="s">
         <v>36</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="E67" s="32">
         <v>0</v>
       </c>
-      <c r="F67" s="80"/>
+      <c r="F67" s="89"/>
       <c r="G67" s="11" t="s">
         <v>36</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="E68" s="51">
         <v>1</v>
       </c>
-      <c r="F68" s="81"/>
+      <c r="F68" s="90"/>
       <c r="G68" s="55" t="s">
         <v>36</v>
       </c>
@@ -3937,10 +3937,10 @@
         <v>118</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="H70" s="75" t="s">
+      <c r="H70" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I70" s="76"/>
+      <c r="I70" s="85"/>
       <c r="J70" s="63"/>
       <c r="K70" s="63"/>
       <c r="L70" s="63"/>
@@ -3954,7 +3954,7 @@
       <c r="B71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="90" t="s">
+      <c r="C71" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3969,8 +3969,8 @@
       <c r="G71" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H71" s="82"/>
-      <c r="I71" s="78"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="87"/>
       <c r="J71" s="63"/>
       <c r="K71" s="63"/>
       <c r="L71" s="63"/>
@@ -3982,7 +3982,7 @@
         <v>42</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C72" s="6">
         <v>1280</v>
@@ -3993,7 +3993,7 @@
       <c r="E72" s="30">
         <v>7</v>
       </c>
-      <c r="F72" s="79" t="s">
+      <c r="F72" s="88" t="s">
         <v>82</v>
       </c>
       <c r="G72" s="38" t="s">
@@ -4016,7 +4016,7 @@
         <v>42</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C73" s="10">
         <v>1281</v>
@@ -4027,7 +4027,7 @@
       <c r="E73" s="32">
         <v>5</v>
       </c>
-      <c r="F73" s="80"/>
+      <c r="F73" s="89"/>
       <c r="G73" s="11" t="s">
         <v>36</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>42</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C74" s="20">
         <v>1282</v>
@@ -4059,7 +4059,7 @@
       <c r="E74" s="51">
         <v>9</v>
       </c>
-      <c r="F74" s="81"/>
+      <c r="F74" s="90"/>
       <c r="G74" s="55" t="s">
         <v>36</v>
       </c>
@@ -4102,10 +4102,10 @@
         <v>119</v>
       </c>
       <c r="G76" s="15"/>
-      <c r="H76" s="75" t="s">
+      <c r="H76" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I76" s="76"/>
+      <c r="I76" s="85"/>
       <c r="J76" s="63"/>
       <c r="K76" s="63"/>
       <c r="L76" s="63"/>
@@ -4119,7 +4119,7 @@
       <c r="B77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="90" t="s">
+      <c r="C77" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4134,8 +4134,8 @@
       <c r="G77" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H77" s="82"/>
-      <c r="I77" s="78"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="87"/>
       <c r="J77" s="63"/>
       <c r="K77" s="63"/>
       <c r="L77" s="63"/>
@@ -4158,7 +4158,7 @@
       <c r="E78" s="30">
         <v>1</v>
       </c>
-      <c r="F78" s="88" t="s">
+      <c r="F78" s="97" t="s">
         <v>84</v>
       </c>
       <c r="G78" s="38" t="s">
@@ -4192,7 +4192,7 @@
       <c r="E79" s="51">
         <v>0</v>
       </c>
-      <c r="F79" s="89"/>
+      <c r="F79" s="98"/>
       <c r="G79" s="55" t="s">
         <v>36</v>
       </c>
@@ -4235,10 +4235,10 @@
         <v>120</v>
       </c>
       <c r="G81" s="15"/>
-      <c r="H81" s="75" t="s">
+      <c r="H81" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I81" s="76"/>
+      <c r="I81" s="85"/>
       <c r="J81" s="63"/>
       <c r="K81" s="63"/>
       <c r="L81" s="63"/>
@@ -4252,7 +4252,7 @@
       <c r="B82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="90" t="s">
+      <c r="C82" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -4267,8 +4267,8 @@
       <c r="G82" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H82" s="82"/>
-      <c r="I82" s="78"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="87"/>
       <c r="J82" s="63"/>
       <c r="K82" s="63"/>
       <c r="L82" s="63"/>
@@ -4282,7 +4282,7 @@
       <c r="B83" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="93">
+      <c r="C83" s="78">
         <v>1792</v>
       </c>
       <c r="D83" s="35" t="s">
@@ -4316,7 +4316,7 @@
       <c r="B84" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="94">
+      <c r="C84" s="79">
         <v>1793</v>
       </c>
       <c r="D84" s="33" t="s">
@@ -4350,7 +4350,7 @@
       <c r="B85" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="92">
+      <c r="C85" s="77">
         <v>1794</v>
       </c>
       <c r="D85" s="59" t="s">

--- a/Memory Map.xlsx
+++ b/Memory Map.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\danie\Google Drive\Work\Modbus\Git\ModbusShift\ModbusShift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7090559-3D51-4296-A2CA-1D63D2D910CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50163D20-06D0-4D62-9BAF-16E956DBB653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32670" yWindow="705" windowWidth="20145" windowHeight="20640" xr2:uid="{30080191-6877-4434-B289-379CC03641DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1065,12 +1066,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,12 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1131,9 +1120,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1149,12 +1135,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,9 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1197,6 +1174,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,27 +1225,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,6 +1233,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,7 +1554,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,62 +2979,62 @@
         <v>108</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="26"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="78"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="36">
+      <c r="B39" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="32">
         <v>256</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="37" t="s">
+      <c r="G39" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="36" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3044,23 +3045,23 @@
       <c r="B40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="37">
         <v>257</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="80"/>
+      <c r="F40" s="86"/>
       <c r="G40" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="40" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3071,23 +3072,23 @@
       <c r="B41" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="37">
         <v>258</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="80"/>
+      <c r="F41" s="86"/>
       <c r="G41" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="40" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3098,23 +3099,23 @@
       <c r="B42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="37">
         <v>259</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="80"/>
+      <c r="F42" s="86"/>
       <c r="G42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="H42" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="40" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3125,23 +3126,23 @@
       <c r="B43" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="37">
         <v>260</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="80"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="40" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3152,23 +3153,23 @@
       <c r="B44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="37">
         <v>261</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="80"/>
+      <c r="F44" s="86"/>
       <c r="G44" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="H44" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="40" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3179,23 +3180,23 @@
       <c r="B45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="37">
         <v>262</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="80"/>
+      <c r="F45" s="86"/>
       <c r="G45" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="40" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3206,23 +3207,23 @@
       <c r="B46" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="37">
         <v>263</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="80"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="H46" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="I46" s="44" t="s">
+      <c r="I46" s="40" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3233,23 +3234,23 @@
       <c r="B47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="41">
         <v>264</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="81"/>
+      <c r="F47" s="87"/>
       <c r="G47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H47" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="44" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3257,23 +3258,23 @@
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="50"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3291,62 +3292,62 @@
         <v>109</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="I50" s="26"/>
+      <c r="I50" s="76"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="33"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="78"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="54">
+      <c r="B52" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="49">
         <v>512</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="82" t="s">
+      <c r="F52" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="57" t="s">
+      <c r="G52" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="58" t="s">
+      <c r="I52" s="53" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3354,12 +3355,12 @@
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -3377,62 +3378,62 @@
         <v>110</v>
       </c>
       <c r="G54" s="5"/>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="I54" s="26"/>
+      <c r="I54" s="76"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="F55" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H55" s="59"/>
-      <c r="I55" s="60"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="35">
+      <c r="B56" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="31">
         <v>768</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="33">
         <v>2</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="34">
         <v>1</v>
       </c>
-      <c r="F56" s="89" t="s">
+      <c r="F56" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G56" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" s="61" t="s">
+      <c r="G56" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="36" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3446,20 +3447,20 @@
       <c r="C57" s="17">
         <v>769</v>
       </c>
-      <c r="D57" s="42">
+      <c r="D57" s="38">
         <v>0</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="39">
         <v>9</v>
       </c>
-      <c r="F57" s="90"/>
+      <c r="F57" s="89"/>
       <c r="G57" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H57" s="62" t="s">
+      <c r="H57" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="40" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3473,20 +3474,20 @@
       <c r="C58" s="17">
         <v>770</v>
       </c>
-      <c r="D58" s="42">
+      <c r="D58" s="38">
         <v>0</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="39">
         <v>0</v>
       </c>
-      <c r="F58" s="90"/>
+      <c r="F58" s="89"/>
       <c r="G58" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H58" s="62" t="s">
+      <c r="H58" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="I58" s="44" t="s">
+      <c r="I58" s="40" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3500,20 +3501,20 @@
       <c r="C59" s="17">
         <v>771</v>
       </c>
-      <c r="D59" s="42">
+      <c r="D59" s="38">
         <v>1</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F59" s="90"/>
+      <c r="F59" s="89"/>
       <c r="G59" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="62" t="s">
+      <c r="H59" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="I59" s="44" t="s">
+      <c r="I59" s="40" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3527,20 +3528,20 @@
       <c r="C60" s="22">
         <v>772</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F60" s="91"/>
+      <c r="F60" s="90"/>
       <c r="G60" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="63" t="s">
+      <c r="H60" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="44" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3548,12 +3549,12 @@
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="50"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
       <c r="G61" s="17"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3571,10 +3572,10 @@
         <v>111</v>
       </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="64" t="s">
+      <c r="H62" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="I62" s="26"/>
+      <c r="I62" s="76"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
@@ -3598,8 +3599,8 @@
       <c r="G63" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="78"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -3608,25 +3609,25 @@
       <c r="B64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="37">
         <v>1024</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="89" t="s">
+      <c r="F64" s="88" t="s">
         <v>81</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H64" s="49" t="s">
+      <c r="H64" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I64" s="44" t="s">
+      <c r="I64" s="40" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3637,23 +3638,23 @@
       <c r="B65" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65" s="37">
         <v>1025</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="90"/>
+      <c r="F65" s="89"/>
       <c r="G65" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H65" s="49" t="s">
+      <c r="H65" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="I65" s="44" t="s">
+      <c r="I65" s="40" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3664,23 +3665,23 @@
       <c r="B66" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="37">
         <v>1026</v>
       </c>
-      <c r="D66" s="49">
+      <c r="D66" s="45">
         <v>2</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="45">
         <v>9</v>
       </c>
-      <c r="F66" s="90"/>
+      <c r="F66" s="89"/>
       <c r="G66" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H66" s="49" t="s">
+      <c r="H66" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I66" s="44" t="s">
+      <c r="I66" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3691,23 +3692,23 @@
       <c r="B67" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67" s="37">
         <v>1027</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="45">
         <v>2</v>
       </c>
-      <c r="F67" s="90"/>
+      <c r="F67" s="89"/>
       <c r="G67" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="49" t="s">
+      <c r="H67" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="I67" s="44" t="s">
+      <c r="I67" s="40" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3718,23 +3719,23 @@
       <c r="B68" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="37">
         <v>1028</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D68" s="45">
         <v>0</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="45">
         <v>2</v>
       </c>
-      <c r="F68" s="90"/>
+      <c r="F68" s="89"/>
       <c r="G68" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H68" s="49" t="s">
+      <c r="H68" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="40" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3745,23 +3746,23 @@
       <c r="B69" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="45">
+      <c r="C69" s="41">
         <v>1029</v>
       </c>
-      <c r="D69" s="65">
+      <c r="D69" s="57">
         <v>1</v>
       </c>
-      <c r="E69" s="65" t="s">
+      <c r="E69" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="F69" s="91"/>
+      <c r="F69" s="90"/>
       <c r="G69" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H69" s="65" t="s">
+      <c r="H69" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="44" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3769,12 +3770,12 @@
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="50"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="46"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -3792,62 +3793,62 @@
         <v>112</v>
       </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="I71" s="26"/>
+      <c r="I71" s="76"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E72" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="51"/>
-      <c r="I72" s="33"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="78"/>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="35">
+      <c r="C73" s="31">
         <v>1280</v>
       </c>
-      <c r="D73" s="37">
+      <c r="D73" s="33">
         <v>1</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="34">
         <v>7</v>
       </c>
-      <c r="F73" s="83" t="s">
+      <c r="F73" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="G73" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" s="61" t="s">
+      <c r="G73" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="I73" s="40" t="s">
+      <c r="I73" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3861,20 +3862,20 @@
       <c r="C74" s="17">
         <v>1281</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D74" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E74" s="43">
+      <c r="E74" s="39">
         <v>5</v>
       </c>
-      <c r="F74" s="84"/>
+      <c r="F74" s="80"/>
       <c r="G74" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H74" s="62" t="s">
+      <c r="H74" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="I74" s="44" t="s">
+      <c r="I74" s="40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3888,20 +3889,20 @@
       <c r="C75" s="17">
         <v>1282</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="38">
         <v>4</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="84"/>
+      <c r="F75" s="80"/>
       <c r="G75" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H75" s="62" t="s">
+      <c r="H75" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I75" s="44" t="s">
+      <c r="I75" s="40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3915,20 +3916,20 @@
       <c r="C76" s="22">
         <v>1283</v>
       </c>
-      <c r="D76" s="46">
+      <c r="D76" s="42">
         <v>2</v>
       </c>
-      <c r="E76" s="47">
+      <c r="E76" s="43">
         <v>9</v>
       </c>
-      <c r="F76" s="85"/>
+      <c r="F76" s="81"/>
       <c r="G76" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H76" s="63" t="s">
+      <c r="H76" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="I76" s="48" t="s">
+      <c r="I76" s="44" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3936,12 +3937,12 @@
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="50"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="46"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -3959,134 +3960,134 @@
         <v>113</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="25" t="s">
+      <c r="H78" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="I78" s="26"/>
+      <c r="I78" s="76"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E79" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H79" s="51"/>
-      <c r="I79" s="33"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="78"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="66" t="s">
+      <c r="A80" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B80" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="68">
-        <v>1792</v>
-      </c>
-      <c r="D80" s="69" t="s">
+      <c r="B80" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="60">
+        <v>1536</v>
+      </c>
+      <c r="D80" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="70" t="s">
+      <c r="E80" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="F80" s="86" t="s">
+      <c r="F80" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="G80" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" s="71" t="s">
+      <c r="G80" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="I80" s="72" t="s">
+      <c r="I80" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="75">
-        <v>1793</v>
-      </c>
-      <c r="D81" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="77" t="s">
+      <c r="C81" s="60">
+        <v>1537</v>
+      </c>
+      <c r="D81" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="F81" s="87" t="s">
+      <c r="F81" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="G81" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" s="71" t="s">
+      <c r="G81" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="I81" s="72" t="s">
+      <c r="I81" s="64" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="54">
-        <v>1794</v>
-      </c>
-      <c r="D82" s="55" t="s">
+      <c r="C82" s="49">
+        <v>1538</v>
+      </c>
+      <c r="D82" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="88" t="s">
+      <c r="F82" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="G82" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="57" t="s">
+      <c r="G82" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="I82" s="58" t="s">
+      <c r="I82" s="53" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4105,4 +4106,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A221A6A3-62E0-496B-BA66-96CB04087BF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Memory Map.xlsx
+++ b/Memory Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\danie\Google Drive\Work\Modbus\Git\ModbusShift\ModbusShift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50163D20-06D0-4D62-9BAF-16E956DBB653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBBD2F0-3B63-43FA-9951-9BFEF9FCE35B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32670" yWindow="705" windowWidth="20145" windowHeight="20640" xr2:uid="{30080191-6877-4434-B289-379CC03641DA}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{30080191-6877-4434-B289-379CC03641DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="167">
   <si>
     <t>MB300xx</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>0x0605</t>
+  </si>
+  <si>
+    <t>(0xFF)</t>
   </si>
 </sst>
 </file>
@@ -1553,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1C154-DD78-4F44-A5B1-C402DE56878A}">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="F59" s="89"/>
       <c r="G59" s="17" t="s">
@@ -3529,10 +3532,10 @@
         <v>772</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="F60" s="90"/>
       <c r="G60" s="22" t="s">
@@ -3828,7 +3831,7 @@
         <v>42</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C73" s="31">
         <v>1280</v>
@@ -3857,7 +3860,7 @@
         <v>42</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74" s="17">
         <v>1281</v>
@@ -3884,7 +3887,7 @@
         <v>42</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="17">
         <v>1282</v>
@@ -3911,7 +3914,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" s="22">
         <v>1283</v>

--- a/Memory Map.xlsx
+++ b/Memory Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\danie\Google Drive\Work\Modbus\Git\ModbusShift\ModbusShift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A51FA6F-FB86-4E44-BDA2-63D72CAC1541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A33F58-20BB-4793-9288-8C1598A8BE16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23460" yWindow="660" windowWidth="20145" windowHeight="20640" xr2:uid="{30080191-6877-4434-B289-379CC03641DA}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{30080191-6877-4434-B289-379CC03641DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="154">
   <si>
     <t>MB300xx</t>
   </si>
@@ -395,12 +395,6 @@
   </si>
   <si>
     <t>0x1f</t>
-  </si>
-  <si>
-    <t>SIPO (Int)</t>
-  </si>
-  <si>
-    <t>PISO (Int)</t>
   </si>
   <si>
     <t>0x0120</t>
@@ -493,6 +487,30 @@
 10 - Write Multiple Registers
 Circuit Setup and Control Registers
 N = SIPO Counter</t>
+  </si>
+  <si>
+    <t>SIPO Len (Int)</t>
+  </si>
+  <si>
+    <t>PISO Len (Int)</t>
+  </si>
+  <si>
+    <t>SIPO Width (Int)</t>
+  </si>
+  <si>
+    <t>PISO Width (Int)</t>
+  </si>
+  <si>
+    <t>0x0134</t>
+  </si>
+  <si>
+    <t>0x0135</t>
+  </si>
+  <si>
+    <t>0x0136</t>
+  </si>
+  <si>
+    <t>0x0137</t>
   </si>
 </sst>
 </file>
@@ -556,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1013,11 +1031,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,49 +1174,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,22 +1211,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1234,9 +1231,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1246,6 +1240,48 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1C154-DD78-4F44-A5B1-C402DE56878A}">
-  <dimension ref="A1:Y117"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,41 +1618,41 @@
     <col min="12" max="12" width="13.28515625" style="5" customWidth="1"/>
     <col min="13" max="13" width="12" style="5" customWidth="1"/>
     <col min="14" max="14" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9.140625" style="85"/>
+    <col min="15" max="25" width="9.140625" style="75"/>
     <col min="26" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="80" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="81"/>
+      <c r="J1" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="84"/>
       <c r="L1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="82"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1640,7 +1676,7 @@
       <c r="G2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="87"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="6" t="s">
         <v>50</v>
       </c>
@@ -1674,7 +1710,7 @@
         <v>36</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>4</v>
@@ -1682,7 +1718,7 @@
       <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
@@ -1693,13 +1729,13 @@
         <v>36</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1716,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>5</v>
@@ -1724,7 +1760,7 @@
       <c r="G4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="12" t="s">
         <v>36</v>
       </c>
@@ -1735,13 +1771,13 @@
         <v>36</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1758,7 +1794,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>6</v>
@@ -1766,7 +1802,7 @@
       <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="12" t="s">
         <v>36</v>
       </c>
@@ -1777,13 +1813,13 @@
         <v>36</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1800,7 +1836,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>7</v>
@@ -1808,7 +1844,7 @@
       <c r="G6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="12" t="s">
         <v>36</v>
       </c>
@@ -1819,13 +1855,13 @@
         <v>36</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1842,7 +1878,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>8</v>
@@ -1850,7 +1886,7 @@
       <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="85"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="12" t="s">
         <v>36</v>
       </c>
@@ -1861,13 +1897,13 @@
         <v>36</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1884,7 +1920,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>9</v>
@@ -1892,7 +1928,7 @@
       <c r="G8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="12" t="s">
         <v>36</v>
       </c>
@@ -1903,13 +1939,13 @@
         <v>36</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1926,7 +1962,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>10</v>
@@ -1934,7 +1970,7 @@
       <c r="G9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="85"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="12" t="s">
         <v>36</v>
       </c>
@@ -1945,13 +1981,13 @@
         <v>36</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1968,7 +2004,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>11</v>
@@ -1976,7 +2012,7 @@
       <c r="G10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="12" t="s">
         <v>36</v>
       </c>
@@ -1987,13 +2023,13 @@
         <v>36</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2010,7 +2046,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>12</v>
@@ -2018,7 +2054,7 @@
       <c r="G11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="85"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="12" t="s">
         <v>36</v>
       </c>
@@ -2029,13 +2065,13 @@
         <v>36</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2052,7 +2088,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>13</v>
@@ -2060,7 +2096,7 @@
       <c r="G12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="85"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="12" t="s">
         <v>36</v>
       </c>
@@ -2071,13 +2107,13 @@
         <v>36</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2094,7 +2130,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>14</v>
@@ -2102,7 +2138,7 @@
       <c r="G13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="85"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="12" t="s">
         <v>36</v>
       </c>
@@ -2113,13 +2149,13 @@
         <v>36</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2136,7 +2172,7 @@
         <v>36</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>15</v>
@@ -2144,7 +2180,7 @@
       <c r="G14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="12" t="s">
         <v>36</v>
       </c>
@@ -2155,13 +2191,13 @@
         <v>36</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2178,7 +2214,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>16</v>
@@ -2186,7 +2222,7 @@
       <c r="G15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="85"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="12" t="s">
         <v>36</v>
       </c>
@@ -2197,13 +2233,13 @@
         <v>36</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2220,7 +2256,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>17</v>
@@ -2228,7 +2264,7 @@
       <c r="G16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="12" t="s">
         <v>36</v>
       </c>
@@ -2239,13 +2275,13 @@
         <v>36</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2262,7 +2298,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>18</v>
@@ -2270,7 +2306,7 @@
       <c r="G17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="85"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="12" t="s">
         <v>36</v>
       </c>
@@ -2281,13 +2317,13 @@
         <v>36</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2304,7 +2340,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>19</v>
@@ -2312,7 +2348,7 @@
       <c r="G18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="85"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="12" t="s">
         <v>36</v>
       </c>
@@ -2323,13 +2359,13 @@
         <v>36</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2346,7 +2382,7 @@
         <v>36</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>20</v>
@@ -2354,7 +2390,7 @@
       <c r="G19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="85"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="12" t="s">
         <v>36</v>
       </c>
@@ -2365,13 +2401,13 @@
         <v>36</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2388,7 +2424,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>21</v>
@@ -2396,7 +2432,7 @@
       <c r="G20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="12" t="s">
         <v>36</v>
       </c>
@@ -2407,13 +2443,13 @@
         <v>36</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2430,7 +2466,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>22</v>
@@ -2438,7 +2474,7 @@
       <c r="G21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="12" t="s">
         <v>36</v>
       </c>
@@ -2449,13 +2485,13 @@
         <v>36</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2472,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>23</v>
@@ -2480,7 +2516,7 @@
       <c r="G22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="12" t="s">
         <v>36</v>
       </c>
@@ -2491,13 +2527,13 @@
         <v>36</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2514,7 +2550,7 @@
         <v>36</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>24</v>
@@ -2522,7 +2558,7 @@
       <c r="G23" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="85"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="12" t="s">
         <v>36</v>
       </c>
@@ -2533,13 +2569,13 @@
         <v>36</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>24</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2556,7 +2592,7 @@
         <v>36</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>25</v>
@@ -2564,7 +2600,7 @@
       <c r="G24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="12" t="s">
         <v>36</v>
       </c>
@@ -2575,13 +2611,13 @@
         <v>36</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2598,7 +2634,7 @@
         <v>36</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>26</v>
@@ -2606,7 +2642,7 @@
       <c r="G25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="12" t="s">
         <v>36</v>
       </c>
@@ -2617,13 +2653,13 @@
         <v>36</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2640,7 +2676,7 @@
         <v>36</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>27</v>
@@ -2648,7 +2684,7 @@
       <c r="G26" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="85"/>
+      <c r="H26" s="75"/>
       <c r="I26" s="12" t="s">
         <v>36</v>
       </c>
@@ -2659,13 +2695,13 @@
         <v>36</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2682,7 +2718,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>28</v>
@@ -2690,7 +2726,7 @@
       <c r="G27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="85"/>
+      <c r="H27" s="75"/>
       <c r="I27" s="12" t="s">
         <v>36</v>
       </c>
@@ -2701,13 +2737,13 @@
         <v>36</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2724,7 +2760,7 @@
         <v>36</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>29</v>
@@ -2732,7 +2768,7 @@
       <c r="G28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="85"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="12" t="s">
         <v>36</v>
       </c>
@@ -2743,13 +2779,13 @@
         <v>36</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M28" s="14" t="s">
         <v>29</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2766,7 +2802,7 @@
         <v>36</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>30</v>
@@ -2774,7 +2810,7 @@
       <c r="G29" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="85"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="12" t="s">
         <v>36</v>
       </c>
@@ -2785,13 +2821,13 @@
         <v>36</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2808,7 +2844,7 @@
         <v>36</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>31</v>
@@ -2816,7 +2852,7 @@
       <c r="G30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="85"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="12" t="s">
         <v>36</v>
       </c>
@@ -2827,13 +2863,13 @@
         <v>36</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>31</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2850,7 +2886,7 @@
         <v>36</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>32</v>
@@ -2858,7 +2894,7 @@
       <c r="G31" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="85"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="12" t="s">
         <v>36</v>
       </c>
@@ -2869,13 +2905,13 @@
         <v>36</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>32</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2892,7 +2928,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>33</v>
@@ -2900,7 +2936,7 @@
       <c r="G32" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="85"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="12" t="s">
         <v>36</v>
       </c>
@@ -2911,13 +2947,13 @@
         <v>36</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M32" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2934,7 +2970,7 @@
         <v>36</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>34</v>
@@ -2942,7 +2978,7 @@
       <c r="G33" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="85"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="12" t="s">
         <v>36</v>
       </c>
@@ -2953,13 +2989,13 @@
         <v>36</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2976,15 +3012,15 @@
         <v>36</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="85"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="16" t="s">
         <v>36</v>
       </c>
@@ -2995,18 +3031,18 @@
         <v>36</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M34" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="N34" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="86"/>
-      <c r="G35" s="86"/>
+    </row>
+    <row r="35" spans="1:14" s="75" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="76"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -3015,7 +3051,7 @@
       <c r="B36" s="2">
         <v>4</v>
       </c>
-      <c r="C36" s="64"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
         <v>48</v>
@@ -3023,16 +3059,16 @@
       <c r="F36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="57" t="s">
+      <c r="G36" s="57"/>
+      <c r="H36" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="58"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -3056,13 +3092,13 @@
       <c r="G37" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
@@ -3071,7 +3107,7 @@
       <c r="B38" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="58">
         <v>256</v>
       </c>
       <c r="D38" s="27" t="s">
@@ -3080,10 +3116,10 @@
       <c r="E38" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="62" t="s">
         <v>35</v>
       </c>
       <c r="H38" s="43" t="s">
@@ -3098,9 +3134,9 @@
       <c r="K38" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -3109,7 +3145,7 @@
       <c r="B39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="59">
         <v>257</v>
       </c>
       <c r="D39" s="31" t="s">
@@ -3118,7 +3154,7 @@
       <c r="E39" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="90"/>
       <c r="G39" s="37" t="s">
         <v>35</v>
       </c>
@@ -3134,9 +3170,9 @@
       <c r="K39" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -3145,7 +3181,7 @@
       <c r="B40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="59">
         <v>258</v>
       </c>
       <c r="D40" s="31" t="s">
@@ -3154,7 +3190,7 @@
       <c r="E40" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="90"/>
       <c r="G40" s="37" t="s">
         <v>35</v>
       </c>
@@ -3170,9 +3206,9 @@
       <c r="K40" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -3181,7 +3217,7 @@
       <c r="B41" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="59">
         <v>259</v>
       </c>
       <c r="D41" s="31" t="s">
@@ -3190,7 +3226,7 @@
       <c r="E41" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="90"/>
       <c r="G41" s="37" t="s">
         <v>35</v>
       </c>
@@ -3206,9 +3242,9 @@
       <c r="K41" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
@@ -3217,7 +3253,7 @@
       <c r="B42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="66">
+      <c r="C42" s="59">
         <v>260</v>
       </c>
       <c r="D42" s="31" t="s">
@@ -3226,7 +3262,7 @@
       <c r="E42" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="90"/>
       <c r="G42" s="37" t="s">
         <v>35</v>
       </c>
@@ -3242,9 +3278,9 @@
       <c r="K42" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -3253,7 +3289,7 @@
       <c r="B43" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="66">
+      <c r="C43" s="59">
         <v>261</v>
       </c>
       <c r="D43" s="31" t="s">
@@ -3262,7 +3298,7 @@
       <c r="E43" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="62"/>
+      <c r="F43" s="90"/>
       <c r="G43" s="37" t="s">
         <v>35</v>
       </c>
@@ -3278,9 +3314,9 @@
       <c r="K43" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -3289,7 +3325,7 @@
       <c r="B44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C44" s="59">
         <v>262</v>
       </c>
       <c r="D44" s="31" t="s">
@@ -3298,7 +3334,7 @@
       <c r="E44" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="62"/>
+      <c r="F44" s="90"/>
       <c r="G44" s="37" t="s">
         <v>35</v>
       </c>
@@ -3314,9 +3350,9 @@
       <c r="K44" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
@@ -3325,7 +3361,7 @@
       <c r="B45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="60">
         <v>263</v>
       </c>
       <c r="D45" s="34" t="s">
@@ -3334,7 +3370,7 @@
       <c r="E45" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="91"/>
       <c r="G45" s="46" t="s">
         <v>35</v>
       </c>
@@ -3350,20 +3386,20 @@
       <c r="K45" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-    </row>
-    <row r="46" spans="1:14" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+    </row>
+    <row r="46" spans="1:14" s="75" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -3372,7 +3408,7 @@
       <c r="B47" s="2">
         <v>4</v>
       </c>
-      <c r="C47" s="64"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3" t="s">
         <v>48</v>
@@ -3380,16 +3416,16 @@
       <c r="F47" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="64"/>
-      <c r="H47" s="57" t="s">
+      <c r="G47" s="57"/>
+      <c r="H47" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="58"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -3413,13 +3449,13 @@
       <c r="G48" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
     </row>
     <row r="49" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
@@ -3428,7 +3464,7 @@
       <c r="B49" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="68">
+      <c r="C49" s="61">
         <v>512</v>
       </c>
       <c r="D49" s="40" t="s">
@@ -3437,34 +3473,34 @@
       <c r="E49" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="68" t="s">
+      <c r="F49" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-    </row>
-    <row r="50" spans="1:14" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="84"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+        <v>123</v>
+      </c>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
+    </row>
+    <row r="50" spans="1:14" s="75" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3473,7 +3509,7 @@
       <c r="B51" s="2">
         <v>4</v>
       </c>
-      <c r="C51" s="64"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3" t="s">
         <v>48</v>
@@ -3481,16 +3517,16 @@
       <c r="F51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="57" t="s">
+      <c r="G51" s="57"/>
+      <c r="H51" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
@@ -3514,13 +3550,13 @@
       <c r="G52" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="59"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="75"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
@@ -3529,7 +3565,7 @@
       <c r="B53" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="69">
+      <c r="C53" s="62">
         <v>768</v>
       </c>
       <c r="D53" s="27">
@@ -3538,23 +3574,23 @@
       <c r="E53" s="28">
         <v>1</v>
       </c>
-      <c r="F53" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="G53" s="69" t="s">
+      <c r="F53" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="62" t="s">
         <v>35</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
+        <v>121</v>
+      </c>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
@@ -3572,21 +3608,21 @@
       <c r="E54" s="32">
         <v>9</v>
       </c>
-      <c r="F54" s="62"/>
+      <c r="F54" s="90"/>
       <c r="G54" s="37" t="s">
         <v>35</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
+        <v>125</v>
+      </c>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -3604,21 +3640,21 @@
       <c r="E55" s="32">
         <v>0</v>
       </c>
-      <c r="F55" s="62"/>
+      <c r="F55" s="90"/>
       <c r="G55" s="37" t="s">
         <v>35</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
+        <v>127</v>
+      </c>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -3636,21 +3672,21 @@
       <c r="E56" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="62"/>
+      <c r="F56" s="90"/>
       <c r="G56" s="37" t="s">
         <v>35</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
+        <v>129</v>
+      </c>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
@@ -3668,32 +3704,32 @@
       <c r="E57" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="63"/>
+      <c r="F57" s="91"/>
       <c r="G57" s="46" t="s">
         <v>35</v>
       </c>
       <c r="H57" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-    </row>
-    <row r="58" spans="1:14" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="84"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
+        <v>130</v>
+      </c>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+    </row>
+    <row r="58" spans="1:14" s="75" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3702,7 +3738,7 @@
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="64"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3" t="s">
         <v>48</v>
@@ -3710,14 +3746,14 @@
       <c r="F59" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G59" s="71"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="75"/>
+      <c r="N59" s="75"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
@@ -3741,13 +3777,13 @@
       <c r="G60" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="75"/>
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
@@ -3756,7 +3792,7 @@
       <c r="B61" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="66">
+      <c r="C61" s="59">
         <v>1024</v>
       </c>
       <c r="D61" s="37" t="s">
@@ -3765,19 +3801,19 @@
       <c r="E61" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="61" t="s">
-        <v>138</v>
+      <c r="F61" s="89" t="s">
+        <v>136</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -3786,7 +3822,7 @@
       <c r="B62" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="66">
+      <c r="C62" s="59">
         <v>1025</v>
       </c>
       <c r="D62" s="37" t="s">
@@ -3795,17 +3831,17 @@
       <c r="E62" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="62"/>
+      <c r="F62" s="90"/>
       <c r="G62" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -3814,7 +3850,7 @@
       <c r="B63" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="66">
+      <c r="C63" s="59">
         <v>1026</v>
       </c>
       <c r="D63" s="37">
@@ -3823,17 +3859,17 @@
       <c r="E63" s="37">
         <v>9</v>
       </c>
-      <c r="F63" s="62"/>
+      <c r="F63" s="90"/>
       <c r="G63" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="85"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="85"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -3842,7 +3878,7 @@
       <c r="B64" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="66">
+      <c r="C64" s="59">
         <v>1027</v>
       </c>
       <c r="D64" s="37" t="s">
@@ -3851,17 +3887,17 @@
       <c r="E64" s="37">
         <v>2</v>
       </c>
-      <c r="F64" s="62"/>
+      <c r="F64" s="90"/>
       <c r="G64" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="91"/>
-      <c r="K64" s="91"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
@@ -3870,7 +3906,7 @@
       <c r="B65" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="66">
+      <c r="C65" s="59">
         <v>1028</v>
       </c>
       <c r="D65" s="37">
@@ -3879,17 +3915,17 @@
       <c r="E65" s="37">
         <v>2</v>
       </c>
-      <c r="F65" s="62"/>
+      <c r="F65" s="90"/>
       <c r="G65" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="85"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="85"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
@@ -3898,7 +3934,7 @@
       <c r="B66" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="67">
+      <c r="C66" s="60">
         <v>1029</v>
       </c>
       <c r="D66" s="46">
@@ -3907,28 +3943,28 @@
       <c r="E66" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="91"/>
       <c r="G66" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="85"/>
-    </row>
-    <row r="67" spans="1:14" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
+    </row>
+    <row r="67" spans="1:14" s="75" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3937,7 +3973,7 @@
       <c r="B68" s="2">
         <v>4</v>
       </c>
-      <c r="C68" s="64"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="2"/>
       <c r="E68" s="3" t="s">
         <v>48</v>
@@ -3945,14 +3981,14 @@
       <c r="F68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G68" s="71"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
@@ -3973,16 +4009,16 @@
       <c r="F69" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="73" t="s">
+      <c r="G69" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="85"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
@@ -3991,7 +4027,7 @@
       <c r="B70" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="69">
+      <c r="C70" s="62">
         <v>1280</v>
       </c>
       <c r="D70" s="27">
@@ -4000,19 +4036,19 @@
       <c r="E70" s="28">
         <v>7</v>
       </c>
-      <c r="F70" s="61" t="s">
-        <v>139</v>
+      <c r="F70" s="89" t="s">
+        <v>137</v>
       </c>
       <c r="G70" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
@@ -4030,17 +4066,17 @@
       <c r="E71" s="32">
         <v>5</v>
       </c>
-      <c r="F71" s="62"/>
+      <c r="F71" s="90"/>
       <c r="G71" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="90"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
@@ -4058,17 +4094,17 @@
       <c r="E72" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F72" s="62"/>
+      <c r="F72" s="90"/>
       <c r="G72" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="85"/>
-      <c r="M72" s="85"/>
-      <c r="N72" s="85"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="75"/>
+      <c r="N72" s="75"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
@@ -4086,28 +4122,28 @@
       <c r="E73" s="35">
         <v>9</v>
       </c>
-      <c r="F73" s="63"/>
+      <c r="F73" s="91"/>
       <c r="G73" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="91"/>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-    </row>
-    <row r="74" spans="1:14" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="84"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+    </row>
+    <row r="74" spans="1:14" s="75" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="74"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -4116,7 +4152,7 @@
       <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="64"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3" t="s">
         <v>48</v>
@@ -4124,16 +4160,16 @@
       <c r="F75" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G75" s="64"/>
-      <c r="H75" s="57" t="s">
+      <c r="G75" s="57"/>
+      <c r="H75" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I75" s="58"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
@@ -4151,247 +4187,255 @@
       <c r="E76" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="24" t="s">
+      <c r="F76" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="21" t="s">
+      <c r="G76" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H76" s="59"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="85"/>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
-      <c r="M76" s="85"/>
-      <c r="N76" s="85"/>
+      <c r="H76" s="95"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="70">
+      <c r="B77" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="58">
         <v>1536</v>
       </c>
-      <c r="D77" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="50" t="s">
+      <c r="D77" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F77" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="G77" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" s="44" t="s">
+      <c r="F77" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="59">
+        <v>1537</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="33" t="s">
+      <c r="I78" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85"/>
-      <c r="M77" s="85"/>
-      <c r="N77" s="85"/>
-    </row>
-    <row r="78" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="68">
-        <v>1537</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="I78" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="J78" s="85"/>
-      <c r="K78" s="85"/>
-      <c r="L78" s="85"/>
-      <c r="M78" s="85"/>
-      <c r="N78" s="85"/>
-    </row>
-    <row r="79" spans="1:14" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="86"/>
-      <c r="G79" s="86"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B79" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="59">
+        <v>1538</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="G79" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I79" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="60">
+        <v>1539</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="G80" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J80" s="75"/>
+      <c r="K80" s="75"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="75"/>
+      <c r="N80" s="75"/>
+    </row>
+    <row r="81" spans="1:14" s="75" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="G81" s="76"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B82" s="2">
         <v>4</v>
       </c>
-      <c r="C80" s="64"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="3" t="s">
+      <c r="C82" s="57"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G80" s="71"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="85"/>
-      <c r="K80" s="85"/>
-      <c r="L80" s="85"/>
-      <c r="M80" s="85"/>
-      <c r="N80" s="85"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="G82" s="64"/>
+      <c r="H82" s="92"/>
+      <c r="I82" s="92"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="75"/>
+      <c r="N82" s="75"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B83" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D83" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E83" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F83" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="73" t="s">
+      <c r="G83" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="H81" s="88"/>
-      <c r="I81" s="88"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="85"/>
-      <c r="L81" s="85"/>
-      <c r="M81" s="85"/>
-      <c r="N81" s="85"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="47" t="s">
+      <c r="H83" s="92"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="75"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="70">
+      <c r="B84" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="63">
         <v>1792</v>
       </c>
-      <c r="D82" s="49" t="s">
+      <c r="D84" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E84" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F82" s="74" t="s">
+      <c r="F84" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="G82" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="85"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="70">
-        <v>1793</v>
-      </c>
-      <c r="D83" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="G83" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85"/>
-      <c r="L83" s="85"/>
-      <c r="M83" s="85"/>
-      <c r="N83" s="85"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="69">
-        <v>1794</v>
-      </c>
-      <c r="D84" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="G84" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="85"/>
-      <c r="L84" s="85"/>
-      <c r="M84" s="85"/>
-      <c r="N84" s="85"/>
+      <c r="G84" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>43</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" s="69">
-        <v>1795</v>
+        <v>37</v>
+      </c>
+      <c r="C85" s="63">
+        <v>1793</v>
       </c>
       <c r="D85" s="54" t="s">
         <v>36</v>
@@ -4399,545 +4443,605 @@
       <c r="E85" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="F85" s="75" t="s">
+      <c r="F85" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="73"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="62">
+        <v>1794</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="62">
+        <v>1795</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="G85" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="83"/>
-      <c r="I85" s="83"/>
-      <c r="J85" s="85"/>
-      <c r="K85" s="85"/>
-      <c r="L85" s="85"/>
-      <c r="M85" s="85"/>
-      <c r="N85" s="85"/>
-    </row>
-    <row r="86" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="38" t="s">
+      <c r="G87" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="75"/>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B88" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="68">
+      <c r="C88" s="61">
         <v>1796</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="D88" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E88" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="F86" s="76" t="s">
+      <c r="F88" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="G86" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="85"/>
-      <c r="K86" s="85"/>
-      <c r="L86" s="85"/>
-      <c r="M86" s="85"/>
-      <c r="N86" s="85"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="85"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85"/>
-      <c r="K87" s="85"/>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
-      <c r="N87" s="85"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="85"/>
-      <c r="B88" s="85"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="86"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
-      <c r="M88" s="85"/>
-      <c r="N88" s="85"/>
+      <c r="G88" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="75"/>
+      <c r="N88" s="75"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="85"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="75"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="85"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="85"/>
-      <c r="I90" s="85"/>
-      <c r="J90" s="85"/>
-      <c r="K90" s="85"/>
-      <c r="L90" s="85"/>
-      <c r="M90" s="85"/>
-      <c r="N90" s="85"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="85"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="85"/>
-      <c r="I91" s="85"/>
-      <c r="J91" s="85"/>
-      <c r="K91" s="85"/>
-      <c r="L91" s="85"/>
-      <c r="M91" s="85"/>
-      <c r="N91" s="85"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="75"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="85"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="75"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="85"/>
-      <c r="N94" s="85"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="85"/>
-      <c r="B95" s="85"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="85"/>
-      <c r="I95" s="85"/>
-      <c r="J95" s="85"/>
-      <c r="K95" s="85"/>
-      <c r="L95" s="85"/>
-      <c r="M95" s="85"/>
-      <c r="N95" s="85"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="75"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="75"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="85"/>
-      <c r="B96" s="85"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="86"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="85"/>
-      <c r="J96" s="85"/>
-      <c r="K96" s="85"/>
-      <c r="L96" s="85"/>
-      <c r="M96" s="85"/>
-      <c r="N96" s="85"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="75"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="75"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
-      <c r="B97" s="85"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="86"/>
-      <c r="H97" s="85"/>
-      <c r="I97" s="85"/>
-      <c r="J97" s="85"/>
-      <c r="K97" s="85"/>
-      <c r="L97" s="85"/>
-      <c r="M97" s="85"/>
-      <c r="N97" s="85"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="75"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="85"/>
-      <c r="B98" s="85"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="85"/>
-      <c r="I98" s="85"/>
-      <c r="J98" s="85"/>
-      <c r="K98" s="85"/>
-      <c r="L98" s="85"/>
-      <c r="M98" s="85"/>
-      <c r="N98" s="85"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="75"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="85"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="86"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="86"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
-      <c r="M99" s="85"/>
-      <c r="N99" s="85"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="75"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="85"/>
-      <c r="B100" s="85"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="86"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="N100" s="85"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="75"/>
+      <c r="N100" s="75"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="85"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="86"/>
-      <c r="H101" s="85"/>
-      <c r="I101" s="85"/>
-      <c r="J101" s="85"/>
-      <c r="K101" s="85"/>
-      <c r="L101" s="85"/>
-      <c r="M101" s="85"/>
-      <c r="N101" s="85"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="75"/>
+      <c r="M101" s="75"/>
+      <c r="N101" s="75"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="85"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="85"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="85"/>
-      <c r="K102" s="85"/>
-      <c r="L102" s="85"/>
-      <c r="M102" s="85"/>
-      <c r="N102" s="85"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="75"/>
+      <c r="M102" s="75"/>
+      <c r="N102" s="75"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="85"/>
-      <c r="B103" s="85"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
-      <c r="M103" s="85"/>
-      <c r="N103" s="85"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
+      <c r="K103" s="75"/>
+      <c r="L103" s="75"/>
+      <c r="M103" s="75"/>
+      <c r="N103" s="75"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="85"/>
-      <c r="B104" s="85"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="85"/>
-      <c r="I104" s="85"/>
-      <c r="J104" s="85"/>
-      <c r="K104" s="85"/>
-      <c r="L104" s="85"/>
-      <c r="M104" s="85"/>
-      <c r="N104" s="85"/>
+      <c r="A104" s="75"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="75"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="85"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="85"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="K105" s="85"/>
-      <c r="L105" s="85"/>
-      <c r="M105" s="85"/>
-      <c r="N105" s="85"/>
+      <c r="A105" s="75"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="75"/>
+      <c r="K105" s="75"/>
+      <c r="L105" s="75"/>
+      <c r="M105" s="75"/>
+      <c r="N105" s="75"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="85"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="K106" s="85"/>
-      <c r="L106" s="85"/>
-      <c r="M106" s="85"/>
-      <c r="N106" s="85"/>
+      <c r="A106" s="75"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="75"/>
+      <c r="M106" s="75"/>
+      <c r="N106" s="75"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="85"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="85"/>
-      <c r="I107" s="85"/>
-      <c r="J107" s="85"/>
-      <c r="K107" s="85"/>
-      <c r="L107" s="85"/>
-      <c r="M107" s="85"/>
-      <c r="N107" s="85"/>
+      <c r="A107" s="75"/>
+      <c r="B107" s="75"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="75"/>
+      <c r="E107" s="75"/>
+      <c r="F107" s="75"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="75"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="75"/>
+      <c r="L107" s="75"/>
+      <c r="M107" s="75"/>
+      <c r="N107" s="75"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="85"/>
-      <c r="B108" s="85"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="86"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="85"/>
-      <c r="L108" s="85"/>
-      <c r="M108" s="85"/>
-      <c r="N108" s="85"/>
+      <c r="A108" s="75"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="75"/>
+      <c r="E108" s="75"/>
+      <c r="F108" s="75"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="75"/>
+      <c r="M108" s="75"/>
+      <c r="N108" s="75"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="85"/>
-      <c r="B109" s="85"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="85"/>
-      <c r="E109" s="85"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="85"/>
-      <c r="I109" s="85"/>
-      <c r="J109" s="85"/>
-      <c r="K109" s="85"/>
-      <c r="L109" s="85"/>
-      <c r="M109" s="85"/>
-      <c r="N109" s="85"/>
+      <c r="A109" s="75"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="75"/>
+      <c r="M109" s="75"/>
+      <c r="N109" s="75"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="85"/>
-      <c r="B110" s="85"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="86"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="85"/>
-      <c r="J110" s="85"/>
-      <c r="K110" s="85"/>
-      <c r="L110" s="85"/>
-      <c r="M110" s="85"/>
-      <c r="N110" s="85"/>
+      <c r="A110" s="75"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="75"/>
+      <c r="E110" s="75"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="75"/>
+      <c r="I110" s="75"/>
+      <c r="J110" s="75"/>
+      <c r="K110" s="75"/>
+      <c r="L110" s="75"/>
+      <c r="M110" s="75"/>
+      <c r="N110" s="75"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
-      <c r="B111" s="85"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="85"/>
-      <c r="I111" s="85"/>
-      <c r="J111" s="85"/>
-      <c r="K111" s="85"/>
-      <c r="L111" s="85"/>
-      <c r="M111" s="85"/>
-      <c r="N111" s="85"/>
+      <c r="A111" s="75"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="75"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="75"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="75"/>
+      <c r="M111" s="75"/>
+      <c r="N111" s="75"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="85"/>
-      <c r="B112" s="85"/>
-      <c r="C112" s="86"/>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
-      <c r="G112" s="86"/>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
-      <c r="J112" s="85"/>
-      <c r="K112" s="85"/>
-      <c r="L112" s="85"/>
-      <c r="M112" s="85"/>
-      <c r="N112" s="85"/>
+      <c r="A112" s="75"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="75"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
+      <c r="K112" s="75"/>
+      <c r="L112" s="75"/>
+      <c r="M112" s="75"/>
+      <c r="N112" s="75"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="85"/>
-      <c r="B113" s="85"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
-      <c r="J113" s="85"/>
-      <c r="K113" s="85"/>
-      <c r="L113" s="85"/>
-      <c r="M113" s="85"/>
-      <c r="N113" s="85"/>
+      <c r="A113" s="75"/>
+      <c r="B113" s="75"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="75"/>
+      <c r="E113" s="75"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="75"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="75"/>
+      <c r="N113" s="75"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="85"/>
-      <c r="B114" s="85"/>
-      <c r="C114" s="86"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="85"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="85"/>
-      <c r="I114" s="85"/>
-      <c r="J114" s="85"/>
-      <c r="K114" s="85"/>
-      <c r="L114" s="85"/>
-      <c r="M114" s="85"/>
-      <c r="N114" s="85"/>
+      <c r="A114" s="75"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="75"/>
+      <c r="E114" s="75"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="75"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="75"/>
+      <c r="K114" s="75"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="75"/>
+      <c r="N114" s="75"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="85"/>
-      <c r="B115" s="85"/>
-      <c r="C115" s="86"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="86"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
-      <c r="M115" s="85"/>
-      <c r="N115" s="85"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="75"/>
+      <c r="E115" s="75"/>
+      <c r="F115" s="75"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="75"/>
+      <c r="I115" s="75"/>
+      <c r="J115" s="75"/>
+      <c r="K115" s="75"/>
+      <c r="L115" s="75"/>
+      <c r="M115" s="75"/>
+      <c r="N115" s="75"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="85"/>
-      <c r="B116" s="85"/>
-      <c r="C116" s="86"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="86"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
-      <c r="M116" s="85"/>
-      <c r="N116" s="85"/>
+      <c r="A116" s="75"/>
+      <c r="B116" s="75"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="75"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="75"/>
+      <c r="I116" s="75"/>
+      <c r="J116" s="75"/>
+      <c r="K116" s="75"/>
+      <c r="L116" s="75"/>
+      <c r="M116" s="75"/>
+      <c r="N116" s="75"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="85"/>
-      <c r="B117" s="85"/>
-      <c r="C117" s="86"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="86"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
-      <c r="M117" s="85"/>
-      <c r="N117" s="85"/>
+      <c r="A117" s="75"/>
+      <c r="B117" s="75"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="75"/>
+      <c r="F117" s="75"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="75"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="75"/>
+      <c r="K117" s="75"/>
+      <c r="L117" s="75"/>
+      <c r="M117" s="75"/>
+      <c r="N117" s="75"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="75"/>
+      <c r="B118" s="75"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="75"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="75"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="75"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="75"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="75"/>
+      <c r="B119" s="75"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="75"/>
+      <c r="E119" s="75"/>
+      <c r="F119" s="75"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="75"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="75"/>
+      <c r="N119" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4945,7 +5049,7 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H36:I37"/>
     <mergeCell ref="F70:F73"/>
-    <mergeCell ref="H80:I81"/>
+    <mergeCell ref="H82:I83"/>
     <mergeCell ref="H51:I52"/>
     <mergeCell ref="F38:F45"/>
     <mergeCell ref="F53:F57"/>
